--- a/data/BARENDRAPARA_A1_ports.xlsx
+++ b/data/BARENDRAPARA_A1_ports.xlsx
@@ -52,7 +52,7 @@
     <t>1b49c00c-734e-4dd9-8e0f-c0525edd9fa1</t>
   </si>
   <si>
-    <t>E1</t>
+    <t>2Mb Interface</t>
   </si>
   <si>
     <t>2mbps</t>
